--- a/Marketing/auburn.roomme.xlsx
+++ b/Marketing/auburn.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B398"/>
+  <dimension ref="A1:B639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,12 +422,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -448,2807 +436,2807 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jessicaviana555</t>
+          <t>karolinegoff</t>
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mia.m.starr</t>
+          <t>wenzel.jackson</t>
         </is>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pmobley8</t>
+          <t>ethmitch</t>
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>luke_vitt</t>
+          <t>chandler_2004</t>
         </is>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>themegahg</t>
+          <t>kayasoniat</t>
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>benheerde</t>
+          <t>goodrich_noah18</t>
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jonharrisadams</t>
+          <t>bitch_mcmuffin</t>
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>abby.gardnerr</t>
+          <t>lilyjn05</t>
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>j_binkley13</t>
+          <t>msdeas</t>
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mason.londre</t>
+          <t>weshollis34</t>
         </is>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>bridgetstreibig</t>
+          <t>patrick.garrity19</t>
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mollyejones</t>
+          <t>liamconnol1y</t>
         </is>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>andrew_beyer19</t>
+          <t>hlauburn</t>
         </is>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ashleybrowder</t>
+          <t>maddie_anthonyy</t>
         </is>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>marydavissandin</t>
+          <t>graci_foshee</t>
         </is>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>elinorsingler</t>
+          <t>elliottstanley1260</t>
         </is>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>lillianbiddlee</t>
+          <t>gracecol06</t>
         </is>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>makenzieawyatt</t>
+          <t>carolsm1thh</t>
         </is>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>lauryn_birt</t>
+          <t>simsbnicole</t>
         </is>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>brendan.hebner</t>
+          <t>zak1234537</t>
         </is>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>griffin.kiewit</t>
+          <t>northcooper803</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>rachelevansss_</t>
+          <t>griffin_triplett</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>lizajaneambuehl</t>
+          <t>willgrimes1</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tekla_cooper</t>
+          <t>nolandunlay</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>beau.smith1</t>
+          <t>nautakathy</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>austin_.carlson</t>
+          <t>ava_rose_dean</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>aria.l.bauer</t>
+          <t>cole_grigsby_</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>makennaablazer</t>
+          <t>kyzer.mac</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>annargrimes</t>
+          <t>uofarocks44</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>tateggardner</t>
+          <t>sebass0214</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>therealgsu</t>
+          <t>lucyeckhardt_</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>jj_scott2004</t>
+          <t>brendan_j_1</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ivey_mattscheck</t>
+          <t>emmalynv24</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>oli1785</t>
+          <t>sara.caulfield</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bri.quintanilla</t>
+          <t>mercershirah</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bhronchek</t>
+          <t>ssophiewallacee</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>julesgibson</t>
+          <t>erin_kathleen_</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>henner.harvey</t>
+          <t>diyapatelll__</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>riley.haeussner</t>
+          <t>axelrosy5</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>lucymcnallyy</t>
+          <t>leah_chava613</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>erinreagann</t>
+          <t>pier.schneider</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>allieblevinss</t>
+          <t>bluefisch56</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>k.smith.30</t>
+          <t>charlotte.grace.omundson</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>peytonsheppard_</t>
+          <t>smartolino_</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>emmylstrickland</t>
+          <t>stacydknight</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>allen_n01</t>
+          <t>alrxghtyaphrxdxte</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>savannahjane_christopher</t>
+          <t>adamtewell05</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>molly.gilmer</t>
+          <t>kate.andrews19</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>abbylynnglover</t>
+          <t>taylor.hasenfuss</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>zachladner</t>
+          <t>sumner_copeland</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>brittonkayne</t>
+          <t>jmegil80</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>cadence.harden</t>
+          <t>panda.shapiro</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>lenableimeyer</t>
+          <t>ryan_macdougall1</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>madison_p1118</t>
+          <t>l.i.l.l.y.m05</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>kirby.crow</t>
+          <t>lucyshieldss</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>leahgurski</t>
+          <t>caroline_salv8</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ava.hardeman</t>
+          <t>johnmoed</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>thomasdaniel406</t>
+          <t>amymc72</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>maddieelder_</t>
+          <t>amylhuds</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>avery.es9</t>
+          <t>nathan.thau</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>catemeany</t>
+          <t>chasemcclelland81</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>jonnyheigler</t>
+          <t>bentleydalton_</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>caroline_holmes27</t>
+          <t>skylarmaroschak</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>jamespfriel</t>
+          <t>phillip._.martin</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>alecm___</t>
+          <t>natalie.cravens</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ace_shaw_</t>
+          <t>brittonkayne</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>hudharmon</t>
+          <t>ava.smiith</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>globetrott2023</t>
+          <t>isaacjcarrillo16</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>hadleyelizabetha</t>
+          <t>____charlie7____</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>michaela__gray</t>
+          <t>_livmarieeee</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>abbeyhallll</t>
+          <t>michaela8193</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>olivia_zirpoli</t>
+          <t>allisonpye_</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>viviangates_</t>
+          <t>mia.m.starr</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>silviawriyer</t>
+          <t>burrmarau</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>avery._.kraus</t>
+          <t>carsonaugie29</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>coop_a_loop14</t>
+          <t>ncrosby2005</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>stellmcnab</t>
+          <t>grant_dickinson21</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ellen_parmer</t>
+          <t>ameliahardyy</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>mack.weston</t>
+          <t>reverendmarkjenkins</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>marrie_lyssa</t>
+          <t>lauren.k.holder</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>parker_lee22</t>
+          <t>jackson_wjc</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>edenboyd</t>
+          <t>hollygu01</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>linnea.greco</t>
+          <t>nnataliepope</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>rebecca.jensrud</t>
+          <t>cannon_bostick23</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>tuckerkeillor</t>
+          <t>jordan.l.duvall</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>catiereedwilbourne</t>
+          <t>nancyjones9813</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>graciejohnsoni</t>
+          <t>lexi_cook23</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>gracecathmerrill</t>
+          <t>ellagrace_zingaro</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>brooke.hurley</t>
+          <t>abby.gardnerr</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>imyash__192</t>
+          <t>isaacjones_06</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>avamobleyy</t>
+          <t>ami.cons</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>jillvorhauer</t>
+          <t>zof.iaaaaa</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>maurice1425</t>
+          <t>hinshaw__maddie</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>riley_parker15</t>
+          <t>jj_scott2004</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>nature.beeches</t>
+          <t>rylinbrockk</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>anna_l_duffy</t>
+          <t>thomasdelgiorno</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>jack_gimm</t>
+          <t>garinstiefel5</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>grayson_hayes</t>
+          <t>char1ieheagy</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>gracemotogawa</t>
+          <t>gracecathmerrill</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sarahkate_frank</t>
+          <t>mason.londre</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>brayden.bordeau</t>
+          <t>niko.lear</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>_laurengreeny</t>
+          <t>mara.paulk</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>kcaputo2016</t>
+          <t>_quinndavis</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>mads.r.wilson</t>
+          <t>graciejohnsoni</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>phillip._.martin</t>
+          <t>haleyy_nelson</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>sara.caulfield</t>
+          <t>jonharrisadams</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>maggieleeball</t>
+          <t>ella.feliciano</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>sarah.stroud_</t>
+          <t>luxoden_nic3</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>lauren.k.holder</t>
+          <t>kcaputo2016</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>zsheln</t>
+          <t>maggielball</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>jaceeturner__</t>
+          <t>tek9412023</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>tek9412023</t>
+          <t>mr.crispy02</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>luke_martin_</t>
+          <t>jonnyheigler</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>brelandgrace_5</t>
+          <t>thekaliana</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>lanasa.aubrey</t>
+          <t>camischodrof</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>sofiehancock</t>
+          <t>shendersonstuff</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>gracieelliott18</t>
+          <t>sofiehancock</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>dr.louisa.pharmd</t>
+          <t>mckaylegg</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>anna.hoffm</t>
+          <t>elsacmooree</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>_elliebalose_</t>
+          <t>caleb.brokaw.2</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>_maddiedale</t>
+          <t>diego.collecting</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>willgunter28</t>
+          <t>charlotte.annn</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>_carolinekpage</t>
+          <t>stormysvensson</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>mia.greco10</t>
+          <t>lilykatherinej</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>maceyporambo</t>
+          <t>cole.upchurch</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>annemarie_hale</t>
+          <t>hudharmon</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>abbygb43</t>
+          <t>heleneskafka</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>kittens_n_art</t>
+          <t>canon_wilbanks</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>sander.j.poth.123</t>
+          <t>owenglacken</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>mardel_orozco</t>
+          <t>_addiebutler</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>robbyharris22</t>
+          <t>annabranchh</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>laurynolivia_h</t>
+          <t>averyy.pham</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>_reaganstein</t>
+          <t>grayson.collier</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>advising2bits</t>
+          <t>rebecca.jensrud</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>zak1234537</t>
+          <t>brayden.bordeau</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>n_swifty</t>
+          <t>tj_riezinger</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>jessielewiss</t>
+          <t>_cassidycbrown</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>hollygu01</t>
+          <t>jake.salmore</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>mary_packer</t>
+          <t>jessicastanhouse</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>nick.hands14</t>
+          <t>_avaathompson</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>bellagroesser</t>
+          <t>xixi_blahblah</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>emily.a.burchett</t>
+          <t>papermarkup</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>kingcoop8</t>
+          <t>bridgetshoemaker_</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>cole_grigsby_</t>
+          <t>ellenowak</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>breanna.smith123</t>
+          <t>reidmaxwell_13</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>hanbrookss</t>
+          <t>_peytondeatherage</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>gracenlamadrid</t>
+          <t>hadleyelizabetha</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>elyse.braddock</t>
+          <t>laurenkmelvin</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>mhgrayson</t>
+          <t>lizajaneambuehl</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>sydneyj0y_</t>
+          <t>aspenroyy</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>thomasondeck</t>
+          <t>luke_vitt</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>weshollis34</t>
+          <t>lisatolle2003</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>oliviaaa.phillips</t>
+          <t>ciara.battles</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>avajalenak</t>
+          <t>jenmoed</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>kyzer.mac</t>
+          <t>emily.a.abernathy</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>_kenziecline</t>
+          <t>grantcmcdonald</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>brooks.booth</t>
+          <t>ginahovis</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ashhh.thompson</t>
+          <t>natalie_burditt</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>chandler_2004</t>
+          <t>_carolinekpage</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>israel_delaguila</t>
+          <t>audreygraham22</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>_alinaeanderson</t>
+          <t>caroline_holmes27</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>elizabethtoole6</t>
+          <t>carolinefeit</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>elsacmooree</t>
+          <t>tori._.bonham</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>skylarmaroschak</t>
+          <t>amandatraceyy</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>caroline_salv8</t>
+          <t>isabellajodon</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>emma_drew04</t>
+          <t>_rhspachman_</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>f0nnkyy</t>
+          <t>chris.kelly.2</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>gabezam0ra</t>
+          <t>lindariezinger</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>_lilly.king</t>
+          <t>annakateberguson</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>amelia.burnette</t>
+          <t>annaparisiiii</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>sydney.bass</t>
+          <t>shalynallen</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ava.pritchett</t>
+          <t>harrison.feldman7</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ryland.pollard</t>
+          <t>connerwhitt08</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>simsbnicole</t>
+          <t>john._.holtz</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ellagraceclark_</t>
+          <t>kyleneighbors_</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>_alexschiavo</t>
+          <t>emelyoddeven</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>maddoxwillard_</t>
+          <t>arden_cryer</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ciara.battles</t>
+          <t>angelagwayne</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>madelinehopey</t>
+          <t>edwards2371</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>mikinleykidd</t>
+          <t>allyblanchet</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>mia_hancock_</t>
+          <t>briannaweisss</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>mary.roslyn_</t>
+          <t>molly.gilmer</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>mckaylegg</t>
+          <t>tekla_cooper</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>jacob_k_10</t>
+          <t>neale.bowyer_4</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>luci.carney</t>
+          <t>how_y_yhu</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>_henryharlan_</t>
+          <t>oliviaaa.phillips</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>karolinegoff</t>
+          <t>jack.shanahan21</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>oliviagracejoubert</t>
+          <t>lilly_kg3</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>will_neff41</t>
+          <t>madelinehopey</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>carolinefeit</t>
+          <t>mhgrayson</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>peytonneathery</t>
+          <t>ivyee_2023</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>kennethjannee</t>
+          <t>desmond.evans2.0</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>luxoden_nic3</t>
+          <t>noah_p227</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>hinshaw__maddie</t>
+          <t>lukejoebaker</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>camischodrof</t>
+          <t>sophiaascarpaci</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>char1ieheagy</t>
+          <t>emmylstrickland</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>katebradberry_</t>
+          <t>joey.nettie</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>haydenfryfishing</t>
+          <t>thomasdaniel406</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>_dinomoran</t>
+          <t>avajalenak</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>carlystevess</t>
+          <t>kristakempton314</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>emmafulcher</t>
+          <t>andrew_beyer19</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>diego.collecting</t>
+          <t>erik.demick7</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>lilly.raehinton</t>
+          <t>juliadecoteau_</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ssophiewallacee</t>
+          <t>laynetemple</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>laurieacunningham</t>
+          <t>patrick_darke</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>grubmart</t>
+          <t>rachelevansss_</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>abbie.merhoff</t>
+          <t>cateyspraggins</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>isabelle.braman</t>
+          <t>brooklyn.rhodes19</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>chloe_murdock8</t>
+          <t>avamaryyy</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>seniors.shoutouts</t>
+          <t>lelliott22</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ellie.radant</t>
+          <t>robbyharris22</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>annika_gregson</t>
+          <t>michmischley</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>natalie.cravens</t>
+          <t>matthew_mcrob</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>sophiaascarpaci</t>
+          <t>ella_grace.9</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>gabbyvanfleet</t>
+          <t>ryleighharris_55</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>krossarizona</t>
+          <t>aubreecaldwelll</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>erik.ejv</t>
+          <t>isabelle.braman</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>laurenkmelvin</t>
+          <t>tiger_tards</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>whitneywardd</t>
+          <t>riley.haeussner</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>erin_kathleen_</t>
+          <t>peyt.rebecca.s</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>diyapatelll__</t>
+          <t>marenrufo</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>maddie_anthonyy</t>
+          <t>stellmcnab</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>sara.jane0303</t>
+          <t>peytonsheppard_</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>maddiemraymond</t>
+          <t>avasfrazier</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>allyydavis_</t>
+          <t>elsa.feld</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>emmagurleyyy</t>
+          <t>luna.saage</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>meganmueller_</t>
+          <t>chloe_murdock8</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>nolandunlay</t>
+          <t>silviawriyer</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>spiegs05</t>
+          <t>k.smith.30</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>jenna.creel</t>
+          <t>susannawrightt</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>janiereeves21</t>
+          <t>jlchouse</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>shelbyelizabethschmitt</t>
+          <t>madison_calder</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>kayasoniat</t>
+          <t>_lil.judge_</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>levigeneherring</t>
+          <t>gardenlove590</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>lydsimms</t>
+          <t>ellen_parmer</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>obourich</t>
+          <t>therealgsu</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>niko.lear</t>
+          <t>thomas.rob1nson</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ellenowak</t>
+          <t>shaamm0301</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>lukejohn3444</t>
+          <t>jamespfriel</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>wdetraditions</t>
+          <t>halfeatenpi</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>tim.hillegass</t>
+          <t>zoey.wallock</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ab.needham</t>
+          <t>christian.tiera</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>dreskle23</t>
+          <t>jacebolan</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>emeryelizabethh_</t>
+          <t>fauyeung03</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>itis.cisco</t>
+          <t>shelbyelizabethschmitt</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>shay.kilm</t>
+          <t>bridgetstreibig</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>cole.upchurch</t>
+          <t>anna._.stevens</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>jake_tidwell123</t>
+          <t>nadia.batra</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>erinnebresler</t>
+          <t>blmd1973</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>alsokameron</t>
+          <t>lucymcnallyy</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>jenninsthompson</t>
+          <t>nature.beeches</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>aspenroyy</t>
+          <t>_allybrooks</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>gabichuinard</t>
+          <t>1bernadetteh</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>nick_matsukas</t>
+          <t>elinorsingler</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>cateyspraggins</t>
+          <t>mila_sirkis</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>alyssammillerr</t>
+          <t>jacksonansley</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>katewisneskii</t>
+          <t>reese.cadogan</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>mclaneedickson</t>
+          <t>haleywallach12</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>shaamm0301</t>
+          <t>amelia.burnette</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>_allybrooks</t>
+          <t>kelseyjoyce_</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>sierralochridge</t>
+          <t>wheel_mcdaniel</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>b_gernenz</t>
+          <t>luke_martin_</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>kathryndanley</t>
+          <t>elliekratochvil</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>avajkultgen</t>
+          <t>jennathompson04</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>_peytondeatherage</t>
+          <t>marydavissandin</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>katecross_</t>
+          <t>srt.slime422</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>audreywv</t>
+          <t>a.vasconi</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>grantbradford2</t>
+          <t>tuckerkeillor</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>adamtewell05</t>
+          <t>meganmueller_</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>abby.kieklak</t>
+          <t>shelby.hortonn</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>garinstiefel5</t>
+          <t>amypotts412</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>avadunaway7</t>
+          <t>jnebby</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>anna_grace4858</t>
+          <t>jack.stevens31</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>graci_foshee</t>
+          <t>emerson__t</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>scout_smith05</t>
+          <t>kw_smith_</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>_rebeccalynch</t>
+          <t>jacob_k_10</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>elliekratochvil</t>
+          <t>cslebleu</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>emerson__t</t>
+          <t>shareedgreen</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>jennathompson04</t>
+          <t>kiley_murphy</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>canon_wilbanks</t>
+          <t>avadunaway7</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>malena.marchetti</t>
+          <t>hanbrookss</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3246,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>braeden_dd</t>
+          <t>emmagurleyyy</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3256,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>mikesatriasarwono</t>
+          <t>patrickeismont</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3266,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>lilykatherinej</t>
+          <t>_kylejones713_</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3276,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>connor.florance</t>
+          <t>lauribellquinn</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3286,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>stacy1koko</t>
+          <t>iamcbabe</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3296,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>lauren__0385</t>
+          <t>kianamcdougall25</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3306,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>mnboucher05</t>
+          <t>krossarizona</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3316,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>jack.shanahan21</t>
+          <t>levigeneherring</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3326,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>matthewbruno_</t>
+          <t>parker_lee22</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3336,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>lexi_cook23</t>
+          <t>savannah_emmaaa</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3346,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>lilly.lawton</t>
+          <t>gracielinn_</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3356,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>peyt.rebecca.s</t>
+          <t>_lilly.king</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3366,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>cecyfeld</t>
+          <t>dawnfriel</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3376,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>abbykburgesss</t>
+          <t>_maddiedale</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3386,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>katherinehluce</t>
+          <t>zsheln</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3396,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>jakehutchens_</t>
+          <t>kathryn.j.b</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3406,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>kyle.conte</t>
+          <t>cooper_heard</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3416,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>urby.12</t>
+          <t>gigi_beachgirl</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3426,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>avadunk1e</t>
+          <t>seniors.shoutouts</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3436,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>jacksonansley</t>
+          <t>nick.hands14</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3446,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>kayleemcdougle20</t>
+          <t>jakehutchens_</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3456,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ella_grace.9</t>
+          <t>catherinedavis_4</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3466,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>allisonnoel__</t>
+          <t>walkerwilliams05</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3476,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>erinelizsmith</t>
+          <t>lyndalynne</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3486,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>matthewd_mck</t>
+          <t>emmafulcher</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3496,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>_livmarieeee</t>
+          <t>luci.carney</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3506,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>umiami.2028</t>
+          <t>_sarasmith._</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3516,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>_katherinerodden</t>
+          <t>06aparker</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3526,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>marin.swarbrick</t>
+          <t>jacksonw_bryant</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3536,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>mpferebee</t>
+          <t>lucyelise</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3546,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>blackauburn27</t>
+          <t>_claud.lowe_</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3556,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ansleymurphy_</t>
+          <t>jake_tidwell123</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3566,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>beisenov407</t>
+          <t>annemarie_hale</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3576,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>kent_blankenburg</t>
+          <t>gcanton4376</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3586,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>efe.miko</t>
+          <t>mizzou.28</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3596,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>_rhspachman_</t>
+          <t>malena.marchetti</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3606,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>lucy.pulitzer</t>
+          <t>sander.j.poth.123</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3616,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>izzy.roguske</t>
+          <t>oliviagracejoubert</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3626,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>willgrimes1</t>
+          <t>laurieacunningham</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3636,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>willtharp1</t>
+          <t>laney.roth</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3646,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>xixi_blahblah</t>
+          <t>yaanseeuw</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3656,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>isabellajodon</t>
+          <t>bellaghart</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3666,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>charlotte.grace.omundson</t>
+          <t>helencatheriner</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3676,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>abbyywayne</t>
+          <t>annargrimes</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3686,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>_will.simmons_</t>
+          <t>stone.wheeler</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3696,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>taylor_brown923</t>
+          <t>jchart_</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3706,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ellishaemurphy</t>
+          <t>marydee.blakely</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3716,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>camitorrance</t>
+          <t>kennedy__watkins</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3726,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>lisatolle2003</t>
+          <t>emma_drew04</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3736,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>braden.sinn</t>
+          <t>ivey_mattscheck</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3746,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>matthew_mcrob</t>
+          <t>mycollectedfavs</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3756,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ella__makenzie.06</t>
+          <t>_audreyfrazier</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3766,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>han_ray05</t>
+          <t>steph_pete21</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3776,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>alyyjohnsonn</t>
+          <t>moc2k_</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3786,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>zoeaboydd</t>
+          <t>abbykburgesss</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3796,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>margellek</t>
+          <t>1bsnla</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3806,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ava.smiith</t>
+          <t>robbyw29</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3816,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>conorb6</t>
+          <t>b_walters1021</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3826,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ellassinger</t>
+          <t>annika_gregson</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3836,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>_johndent</t>
+          <t>jack_gimm</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3846,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>_cassidycbrown</t>
+          <t>ellastowe</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3856,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>jackson_mathis_</t>
+          <t>tuckerr_ryan</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3866,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>jenmoed</t>
+          <t>ellasherrard</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3876,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>maressa.williams</t>
+          <t>manny_cazeau</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3886,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>miguelb_39</t>
+          <t>askanook</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3896,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>aubie_glow</t>
+          <t>_johndent</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3906,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>annabranchh</t>
+          <t>nursesandee</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3916,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>tori._.bonham</t>
+          <t>leo_chieza</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3926,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>dellamasonn</t>
+          <t>katebradberry_</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3936,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>jbratina1</t>
+          <t>rachelmillsaps</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3946,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ava_rose_dean</t>
+          <t>breckblank</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3956,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>northcooper803</t>
+          <t>james_friel_</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3966,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>lauribellquinn</t>
+          <t>bragging.wrights</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3976,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>wenzel.jackson</t>
+          <t>kaciguerreinn</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3986,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>bentleydalton_</t>
+          <t>maressa.williams</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +3996,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>kendallshuey_</t>
+          <t>katecockrell_</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4006,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>sydney_bh</t>
+          <t>abbyywayne</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4016,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>laney.roth</t>
+          <t>avery._.kraus</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4026,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>vvanessavaccaro</t>
+          <t>averywilliamson.3</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4036,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>bsl_04</t>
+          <t>sethkerr_lax23</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4046,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>madison_calder</t>
+          <t>ellie.radant</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4056,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>allegracrawfordd</t>
+          <t>kent_blankenburg</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4066,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>marrisjoe69</t>
+          <t>_finleygray</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4076,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>chris.kelly.2</t>
+          <t>ansley_dickerson27</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4086,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>lilliekrobinson</t>
+          <t>lucas_savage71</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4096,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>hudsonkennerly</t>
+          <t>beisenov407</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4106,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>arden_cryer</t>
+          <t>jonesmaya11</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4116,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>nnataliepope</t>
+          <t>lillianbiddlee</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4126,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>abbybbower</t>
+          <t>audreywv</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4136,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>jacks0nnorris</t>
+          <t>griffin.kiewit</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4146,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>rhylynard</t>
+          <t>sarah._helman</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4156,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ryannodar</t>
+          <t>dellamasonn</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4166,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>flores.marianaa</t>
+          <t>zoeaboydd</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4176,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>briangannon_</t>
+          <t>erinnebresler</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4186,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>chasedand</t>
+          <t>dr.louisa.pharmd</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4196,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>annaclayton_05</t>
+          <t>gracieelliott18</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4206,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>rachelmillsaps</t>
+          <t>laurynolivia_h</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4216,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>walkerwilliams05</t>
+          <t>walkeratkinson_</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4226,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>patrickeismont</t>
+          <t>kendallshuey_</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4236,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>kelseyjoyce_</t>
+          <t>_henryharlan_</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4246,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>catherinedavis_4</t>
+          <t>ab.needham</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4256,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>stone.wheeler</t>
+          <t>gabbyvanfleet</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4266,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>mosby_c_hill</t>
+          <t>carissa_j146</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4276,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>kaylee.word</t>
+          <t>mollie_hemphill</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4286,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>iamcbabe</t>
+          <t>max.berkenfield</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4296,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ashlyn.stucky</t>
+          <t>braden.sinn</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4306,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>alexisdombalis</t>
+          <t>thegroveau</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4316,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>gracecomptonnn</t>
+          <t>anna.hoffm</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4326,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>hoperusso_</t>
+          <t>brittanyedone</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4336,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>amelia_knudson</t>
+          <t>avery.es9</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4346,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>_ava_spires_123</t>
+          <t>amcdonald6802</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4356,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>gigi_beachgirl</t>
+          <t>kennedymporter</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4366,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>jordan.l.duvall</t>
+          <t>gabbyporricolo</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4376,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>_audreyfrazier</t>
+          <t>michellebhicks</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4386,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>chloe_sipe</t>
+          <t>j.mosier76</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,10 +4396,2420 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>jacknauta</t>
+          <t>linnea.greco</t>
         </is>
       </c>
       <c r="B398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>abbylynnglover</t>
+        </is>
+      </c>
+      <c r="B399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>ava.hardeman</t>
+        </is>
+      </c>
+      <c r="B400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>cathy.mcmillen</t>
+        </is>
+      </c>
+      <c r="B401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>ava._.bass</t>
+        </is>
+      </c>
+      <c r="B402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>abbygb43</t>
+        </is>
+      </c>
+      <c r="B403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>liv_mccaffery174</t>
+        </is>
+      </c>
+      <c r="B404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>will.b_3</t>
+        </is>
+      </c>
+      <c r="B405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>rafael_garciaa</t>
+        </is>
+      </c>
+      <c r="B406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>itsmaggiehaha</t>
+        </is>
+      </c>
+      <c r="B407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>emily.a.burchett</t>
+        </is>
+      </c>
+      <c r="B408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>amelia_knudson</t>
+        </is>
+      </c>
+      <c r="B409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>via.clancy</t>
+        </is>
+      </c>
+      <c r="B410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>haydenfryfishing</t>
+        </is>
+      </c>
+      <c r="B411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>efe.miko</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>dreww.moss</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>brendan.hebner</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>maddiemraymond</t>
+        </is>
+      </c>
+      <c r="B415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>sydney.bass</t>
+        </is>
+      </c>
+      <c r="B416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>zola.spence</t>
+        </is>
+      </c>
+      <c r="B417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>brooke.hurley</t>
+        </is>
+      </c>
+      <c r="B418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>blakemischley</t>
+        </is>
+      </c>
+      <c r="B419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>riley_parker15</t>
+        </is>
+      </c>
+      <c r="B420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>joshshvartsman</t>
+        </is>
+      </c>
+      <c r="B421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>champagnenathan2</t>
+        </is>
+      </c>
+      <c r="B422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>lucy.pulitzer</t>
+        </is>
+      </c>
+      <c r="B423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>lilliepuhrmann</t>
+        </is>
+      </c>
+      <c r="B424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>kellyst.john</t>
+        </is>
+      </c>
+      <c r="B425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>courtney__stringer</t>
+        </is>
+      </c>
+      <c r="B426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>olivia_zirpoli</t>
+        </is>
+      </c>
+      <c r="B427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>maurice1425</t>
+        </is>
+      </c>
+      <c r="B428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>sam_mathews5</t>
+        </is>
+      </c>
+      <c r="B429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>conorb6</t>
+        </is>
+      </c>
+      <c r="B430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>ericaterryhammond</t>
+        </is>
+      </c>
+      <c r="B431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>ha.rley1457</t>
+        </is>
+      </c>
+      <c r="B432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>kittens_n_art</t>
+        </is>
+      </c>
+      <c r="B433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>grubmart</t>
+        </is>
+      </c>
+      <c r="B434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>grantbradford2</t>
+        </is>
+      </c>
+      <c r="B435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>ellishaemurphy</t>
+        </is>
+      </c>
+      <c r="B436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>auhslc</t>
+        </is>
+      </c>
+      <c r="B437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>j_binkley13</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>sportydman9</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>leahgurski</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>lanasa.aubrey</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>oliviadohertyy</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>tateggardner</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>sheli_upchurch37</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>epert_excel</t>
+        </is>
+      </c>
+      <c r="B445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>mitchhenson_</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>joejose78</t>
+        </is>
+      </c>
+      <c r="B447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>ch1oe.mari3</t>
+        </is>
+      </c>
+      <c r="B448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>cassiedace</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>pmobley8</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>thomasondeck</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>julesgibson</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>elenaryerson</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>carina.d.rossi</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>reagan.nowak</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>leona_sanford08</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>claytonlantz</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>savannahjane_christopher</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>saniya.mathew40</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>jessielewiss</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>bellagroesser</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>kyle.conte</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>alicia_lordi</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>ellagraceclark_</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>_sieler03</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>connor.florance</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>anne.wags</t>
+        </is>
+      </c>
+      <c r="B467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>emilyharbin</t>
+        </is>
+      </c>
+      <c r="B468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>_ava_spires_123</t>
+        </is>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>jillvorhauer</t>
+        </is>
+      </c>
+      <c r="B470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>oluwakayode696_</t>
+        </is>
+      </c>
+      <c r="B471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>alecm___</t>
+        </is>
+      </c>
+      <c r="B472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>noracowles</t>
+        </is>
+      </c>
+      <c r="B473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>elizabethtoole6</t>
+        </is>
+      </c>
+      <c r="B474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>dr_stephanie_johnson</t>
+        </is>
+      </c>
+      <c r="B475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>kaniylarobinsonn</t>
+        </is>
+      </c>
+      <c r="B476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>margellek</t>
+        </is>
+      </c>
+      <c r="B477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>lauryn_birt</t>
+        </is>
+      </c>
+      <c r="B478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>moeforbess</t>
+        </is>
+      </c>
+      <c r="B479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>kirby.crow</t>
+        </is>
+      </c>
+      <c r="B480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>mia_hancock_</t>
+        </is>
+      </c>
+      <c r="B481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>mollyejones</t>
+        </is>
+      </c>
+      <c r="B482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>kyjo25_</t>
+        </is>
+      </c>
+      <c r="B483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>viviangates_</t>
+        </is>
+      </c>
+      <c r="B484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>alyssammillerr</t>
+        </is>
+      </c>
+      <c r="B485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>chasedand</t>
+        </is>
+      </c>
+      <c r="B486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>mikinleykidd</t>
+        </is>
+      </c>
+      <c r="B487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>n_swifty</t>
+        </is>
+      </c>
+      <c r="B488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>shea.stansberry</t>
+        </is>
+      </c>
+      <c r="B489" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>blackauburn27</t>
+        </is>
+      </c>
+      <c r="B490" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>tannerhartley70</t>
+        </is>
+      </c>
+      <c r="B491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>gracemotogawa</t>
+        </is>
+      </c>
+      <c r="B492" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>_elliebalose_</t>
+        </is>
+      </c>
+      <c r="B493" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>mary.roslyn_</t>
+        </is>
+      </c>
+      <c r="B494" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>katecross_</t>
+        </is>
+      </c>
+      <c r="B495" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>peyton_v_lewis</t>
+        </is>
+      </c>
+      <c r="B496" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>simonepardasani</t>
+        </is>
+      </c>
+      <c r="B497" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>123spires</t>
+        </is>
+      </c>
+      <c r="B498" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>sierralochridge</t>
+        </is>
+      </c>
+      <c r="B499" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>hamptonlane.7</t>
+        </is>
+      </c>
+      <c r="B500" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>paxton_bryan</t>
+        </is>
+      </c>
+      <c r="B501" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>_rachel_mcdonald_</t>
+        </is>
+      </c>
+      <c r="B502" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>erinreagann</t>
+        </is>
+      </c>
+      <c r="B503" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>alexxjclark</t>
+        </is>
+      </c>
+      <c r="B504" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>bryanswaney.19</t>
+        </is>
+      </c>
+      <c r="B505" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>edward_jack765</t>
+        </is>
+      </c>
+      <c r="B506" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>ryland.pollard</t>
+        </is>
+      </c>
+      <c r="B507" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>sarah.taylor06</t>
+        </is>
+      </c>
+      <c r="B508" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>kingcoop8</t>
+        </is>
+      </c>
+      <c r="B509" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>best1800</t>
+        </is>
+      </c>
+      <c r="B510" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>kkerber14</t>
+        </is>
+      </c>
+      <c r="B511" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>marin.bohlman</t>
+        </is>
+      </c>
+      <c r="B512" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>globetrott2023</t>
+        </is>
+      </c>
+      <c r="B513" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>anthonypessia</t>
+        </is>
+      </c>
+      <c r="B514" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>allegracrawfordd</t>
+        </is>
+      </c>
+      <c r="B515" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>carissarinard</t>
+        </is>
+      </c>
+      <c r="B516" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>max_yeast</t>
+        </is>
+      </c>
+      <c r="B517" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>cadence.harden</t>
+        </is>
+      </c>
+      <c r="B518" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>will_neff41</t>
+        </is>
+      </c>
+      <c r="B519" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>drgreenjohnson</t>
+        </is>
+      </c>
+      <c r="B520" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>hoperusso_</t>
+        </is>
+      </c>
+      <c r="B521" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>cecyfeld</t>
+        </is>
+      </c>
+      <c r="B522" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>_reaganstein</t>
+        </is>
+      </c>
+      <c r="B523" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>daltongrace_</t>
+        </is>
+      </c>
+      <c r="B524" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>scout_smith05</t>
+        </is>
+      </c>
+      <c r="B525" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>mary_packer</t>
+        </is>
+      </c>
+      <c r="B526" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>mpferebee</t>
+        </is>
+      </c>
+      <c r="B527" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>allisonnoel__</t>
+        </is>
+      </c>
+      <c r="B528" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>jess.norm__01</t>
+        </is>
+      </c>
+      <c r="B529" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>madelyn_jj</t>
+        </is>
+      </c>
+      <c r="B530" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>ellassinger</t>
+        </is>
+      </c>
+      <c r="B531" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>nelsonbrown25</t>
+        </is>
+      </c>
+      <c r="B532" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>momma_stucky</t>
+        </is>
+      </c>
+      <c r="B533" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>maceyporambo</t>
+        </is>
+      </c>
+      <c r="B534" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>leeotts1</t>
+        </is>
+      </c>
+      <c r="B535" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>brockmuirr</t>
+        </is>
+      </c>
+      <c r="B536" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>_debraparker_</t>
+        </is>
+      </c>
+      <c r="B537" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>wyatt_seal11</t>
+        </is>
+      </c>
+      <c r="B538" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>collindegenhardt</t>
+        </is>
+      </c>
+      <c r="B539" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>erik.ejv</t>
+        </is>
+      </c>
+      <c r="B540" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>aansleydaniel</t>
+        </is>
+      </c>
+      <c r="B541" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>sweezye4</t>
+        </is>
+      </c>
+      <c r="B542" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>anna_l_duffy</t>
+        </is>
+      </c>
+      <c r="B543" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>dreskle23</t>
+        </is>
+      </c>
+      <c r="B544" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>heidifelini</t>
+        </is>
+      </c>
+      <c r="B545" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>evieebabcock</t>
+        </is>
+      </c>
+      <c r="B546" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>ejimenez04</t>
+        </is>
+      </c>
+      <c r="B547" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>alecdaniel16</t>
+        </is>
+      </c>
+      <c r="B548" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>allieblevinss</t>
+        </is>
+      </c>
+      <c r="B549" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>alex_grace611_</t>
+        </is>
+      </c>
+      <c r="B550" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>renan_10.jr</t>
+        </is>
+      </c>
+      <c r="B551" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>allen_n01</t>
+        </is>
+      </c>
+      <c r="B552" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>jacob_volkers</t>
+        </is>
+      </c>
+      <c r="B553" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>michaelcasiano6</t>
+        </is>
+      </c>
+      <c r="B554" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>maria_wolowiecki</t>
+        </is>
+      </c>
+      <c r="B555" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>avadunk1e</t>
+        </is>
+      </c>
+      <c r="B556" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>matthewbruno_</t>
+        </is>
+      </c>
+      <c r="B557" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>braxton_hallmon</t>
+        </is>
+      </c>
+      <c r="B558" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>kennethjannee</t>
+        </is>
+      </c>
+      <c r="B559" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>lydsimms</t>
+        </is>
+      </c>
+      <c r="B560" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>_cday01</t>
+        </is>
+      </c>
+      <c r="B561" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>ashhh.thompson</t>
+        </is>
+      </c>
+      <c r="B562" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>_rebeccalynch</t>
+        </is>
+      </c>
+      <c r="B563" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>ej.hewette</t>
+        </is>
+      </c>
+      <c r="B564" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>peyton.thomasson</t>
+        </is>
+      </c>
+      <c r="B565" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>jenna.creel</t>
+        </is>
+      </c>
+      <c r="B566" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>shelbi_stein</t>
+        </is>
+      </c>
+      <c r="B567" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>sarah.guff</t>
+        </is>
+      </c>
+      <c r="B568" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>makennaablazer</t>
+        </is>
+      </c>
+      <c r="B569" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>mnboucher05</t>
+        </is>
+      </c>
+      <c r="B570" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>mack.weston</t>
+        </is>
+      </c>
+      <c r="B571" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>joedonofro</t>
+        </is>
+      </c>
+      <c r="B572" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>garrett_burdeaux_</t>
+        </is>
+      </c>
+      <c r="B573" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>ava.pritchett</t>
+        </is>
+      </c>
+      <c r="B574" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>edenboyd</t>
+        </is>
+      </c>
+      <c r="B575" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>leighannhixon</t>
+        </is>
+      </c>
+      <c r="B576" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>kademcleroy</t>
+        </is>
+      </c>
+      <c r="B577" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>avajkultgen</t>
+        </is>
+      </c>
+      <c r="B578" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>breanna.smith123</t>
+        </is>
+      </c>
+      <c r="B579" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>chellard__</t>
+        </is>
+      </c>
+      <c r="B580" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>whitneywardd</t>
+        </is>
+      </c>
+      <c r="B581" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>addisonsohosky</t>
+        </is>
+      </c>
+      <c r="B582" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>juliaannh3</t>
+        </is>
+      </c>
+      <c r="B583" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>mindyjchapman</t>
+        </is>
+      </c>
+      <c r="B584" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>r.skinner16</t>
+        </is>
+      </c>
+      <c r="B585" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>alexisdombalis</t>
+        </is>
+      </c>
+      <c r="B586" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>_laurenturnerr</t>
+        </is>
+      </c>
+      <c r="B587" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>kaseleighmccarley</t>
+        </is>
+      </c>
+      <c r="B588" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>shay.kilm</t>
+        </is>
+      </c>
+      <c r="B589" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>flores.marianaa</t>
+        </is>
+      </c>
+      <c r="B590" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>parkerwwest</t>
+        </is>
+      </c>
+      <c r="B591" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>sara.jane0303</t>
+        </is>
+      </c>
+      <c r="B592" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>zachladner</t>
+        </is>
+      </c>
+      <c r="B593" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>j.rosay.0k_</t>
+        </is>
+      </c>
+      <c r="B594" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>tylerelcan28</t>
+        </is>
+      </c>
+      <c r="B595" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>obourich</t>
+        </is>
+      </c>
+      <c r="B596" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>jackahollis</t>
+        </is>
+      </c>
+      <c r="B597" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>allisonwootton</t>
+        </is>
+      </c>
+      <c r="B598" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>gabezam0ra</t>
+        </is>
+      </c>
+      <c r="B599" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>_kenziecline</t>
+        </is>
+      </c>
+      <c r="B600" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>marrie_lyssa</t>
+        </is>
+      </c>
+      <c r="B601" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>ace_shaw_</t>
+        </is>
+      </c>
+      <c r="B602" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>elly_maddyyyy</t>
+        </is>
+      </c>
+      <c r="B603" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>ninaalexandra29</t>
+        </is>
+      </c>
+      <c r="B604" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>alsokameron</t>
+        </is>
+      </c>
+      <c r="B605" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>braeden_dd</t>
+        </is>
+      </c>
+      <c r="B606" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>emilevidrine</t>
+        </is>
+      </c>
+      <c r="B607" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>buzbeatin_</t>
+        </is>
+      </c>
+      <c r="B608" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>annab3lle.bee</t>
+        </is>
+      </c>
+      <c r="B609" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>jessicaviana555</t>
+        </is>
+      </c>
+      <c r="B610" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>harlee.turner</t>
+        </is>
+      </c>
+      <c r="B611" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>catiereedwilbourne</t>
+        </is>
+      </c>
+      <c r="B612" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>aria.l.bauer</t>
+        </is>
+      </c>
+      <c r="B613" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>aubrey.gatewood</t>
+        </is>
+      </c>
+      <c r="B614" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>maddoxwillard_</t>
+        </is>
+      </c>
+      <c r="B615" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>spiegs05</t>
+        </is>
+      </c>
+      <c r="B616" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>maggie.mackin</t>
+        </is>
+      </c>
+      <c r="B617" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>savannah.e.m</t>
+        </is>
+      </c>
+      <c r="B618" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>seth_merkel</t>
+        </is>
+      </c>
+      <c r="B619" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>jack_stanford1</t>
+        </is>
+      </c>
+      <c r="B620" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>michaela__gray</t>
+        </is>
+      </c>
+      <c r="B621" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>kelton_4</t>
+        </is>
+      </c>
+      <c r="B622" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>cheri_heather</t>
+        </is>
+      </c>
+      <c r="B623" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>sarahkate_frank</t>
+        </is>
+      </c>
+      <c r="B624" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>kellena01</t>
+        </is>
+      </c>
+      <c r="B625" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>olivia_naughton_</t>
+        </is>
+      </c>
+      <c r="B626" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>tylerkirkland3</t>
+        </is>
+      </c>
+      <c r="B627" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>abbie.merhoff</t>
+        </is>
+      </c>
+      <c r="B628" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>ecnicolosi</t>
+        </is>
+      </c>
+      <c r="B629" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>jenninsthompson</t>
+        </is>
+      </c>
+      <c r="B630" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>elizabethlsu</t>
+        </is>
+      </c>
+      <c r="B631" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>_dinomoran</t>
+        </is>
+      </c>
+      <c r="B632" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>rchrisw1111</t>
+        </is>
+      </c>
+      <c r="B633" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>ava_spires13</t>
+        </is>
+      </c>
+      <c r="B634" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>pistoy6</t>
+        </is>
+      </c>
+      <c r="B635" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>kaylee.word</t>
+        </is>
+      </c>
+      <c r="B636" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>mardel_orozco</t>
+        </is>
+      </c>
+      <c r="B637" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>katie.perrins</t>
+        </is>
+      </c>
+      <c r="B638" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>kaleirobison</t>
+        </is>
+      </c>
+      <c r="B639" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/auburn.roomme.xlsx
+++ b/Marketing/auburn.roomme.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Followers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,12 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Follower</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Contacted</t>
         </is>
@@ -440,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -540,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -550,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -560,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -570,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -580,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -590,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -610,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -620,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -630,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -640,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -650,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -660,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -670,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -680,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -690,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -700,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -710,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -720,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -730,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -740,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -750,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -760,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -770,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -780,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -790,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -800,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -810,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -820,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -830,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">

--- a/Marketing/auburn.roomme.xlsx
+++ b/Marketing/auburn.roomme.xlsx
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">

--- a/Marketing/auburn.roomme.xlsx
+++ b/Marketing/auburn.roomme.xlsx
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">

--- a/Marketing/auburn.roomme.xlsx
+++ b/Marketing/auburn.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lauren.garretson</t>
+          <t>nadia_jubran</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jorp_04</t>
+          <t>sarahbowdouris</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lindariezinger</t>
+          <t>emily.marsengill</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jacksonellington</t>
+          <t>xanderpayne1</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>auhslc</t>
+          <t>luci.k.williams</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>emmabordeaux_</t>
+          <t>audreymolitorr</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>shay.kilm</t>
+          <t>chekkasalmieri</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>annargrimes</t>
+          <t>makenziec_brooks</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>olivauburn</t>
+          <t>zarafranta</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>amymc72</t>
+          <t>hannahgharber</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>_johndent</t>
+          <t>alexacone</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jakehutchens_</t>
+          <t>aubryrogers</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jessielewiss</t>
+          <t>sadielingerfield</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1bernadetteh</t>
+          <t>tori.ebert</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>daniel_stokley</t>
+          <t>fortune.malegni</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>_elliebalose_</t>
+          <t>realfrankthomas.__</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>taylor.hasenfuss</t>
+          <t>_maddiedale</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>chasemcclelland81</t>
+          <t>_nicknobel</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>jacebolan</t>
+          <t>addiemlee</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>coopdog.carolina</t>
+          <t>elsa.feld</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>obourich</t>
+          <t>reese.tay1or</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>tasha2791natasha</t>
+          <t>carolinerobertsonn</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>bridgetshoemaker_</t>
+          <t>margotgravess</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mia.greco10</t>
+          <t>haleywallach12</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>chellard__</t>
+          <t>jordanmarinerjones</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>kelton_4</t>
+          <t>madisonnpayne</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ashhh.thompson</t>
+          <t>meredithbneil</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>jacob_volkers</t>
+          <t>lilli.gober</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>joedonofro</t>
+          <t>natalie__gomez_</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>john._.holtz</t>
+          <t>simmonscourtenay</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>trippbeaty</t>
+          <t>gorecki_emily</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ellagrace_zingaro</t>
+          <t>kellyoquinn__</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>jacksonw_bryant</t>
+          <t>lukejoebaker</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>imyash__192</t>
+          <t>annabellegpage</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>shaamm0301</t>
+          <t>jane.e.collins</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>johnmoed</t>
+          <t>marynell.miller</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>chloe_murdock8</t>
+          <t>gracieewilkinsonn</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>grantbradford2</t>
+          <t>riley.sheetss</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>zsheln</t>
+          <t>_evanrice</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>nancyjones9813</t>
+          <t>hatton.abby</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>spencer_hirsch05</t>
+          <t>gracenlamadrid</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>avadunaway7</t>
+          <t>averymurrell_</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>briangannon_</t>
+          <t>kar_schofill</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>viviangates_</t>
+          <t>alyssargruber_</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>aspenroyy</t>
+          <t>elisee.walkerr</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>bellaghart</t>
+          <t>dianaltran</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>wenzel.jackson</t>
+          <t>katiesmith.14</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>jonharrisadams</t>
+          <t>hana.vickery</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sydney_bh</t>
+          <t>emmaarusnak</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>lily.pate19</t>
+          <t>nadia.batra</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>cooper_heard</t>
+          <t>_claud.lowe_</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>amypotts412</t>
+          <t>caroline_keith8</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>lauren__0385</t>
+          <t>allyydavis_</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>jbratina1</t>
+          <t>elise.baer</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>jackdeputy</t>
+          <t>avakadams</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>lydsimms</t>
+          <t>nevaeh_stevens27</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>averyhale45</t>
+          <t>jennacellis</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>luke_martin_</t>
+          <t>laurenfoss27</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>jack.stevens31</t>
+          <t>ashlyndiehll</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>canon_wilbanks</t>
+          <t>laurengrace_04</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>frankmelkonian</t>
+          <t>raeleigh.boesel</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>simsbnicole</t>
+          <t>addison.leathem</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>tannerhartley70</t>
+          <t>colin.blankner13</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>brittonkayne</t>
+          <t>_katelugar</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>katecockrell_</t>
+          <t>grace.koves</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>kyle.conte</t>
+          <t>anna._bethh</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>karlcreazzo</t>
+          <t>cjzawada</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>brayden.bordeau</t>
+          <t>libbybourland_</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>bitch_mcmuffin</t>
+          <t>siennaabrooks</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>amylhuds</t>
+          <t>allyblanchet</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>_sieler03</t>
+          <t>fp_2026</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ethmitch</t>
+          <t>annabowlerconyers</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>kaleirobison</t>
+          <t>grace.m.15</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>elliekratochvil</t>
+          <t>dorothyverner_</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>cameronhowes_</t>
+          <t>jocelyn.hughesss</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>johnthomas207</t>
+          <t>_anna.dunn</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>avajalenak</t>
+          <t>braciebohaboy</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>haleyy_nelson</t>
+          <t>loading_landon</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>phillip._.martin</t>
+          <t>tuckerr_ryan</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>arabelle.5</t>
+          <t>selenaa.nicole</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>jksconi</t>
+          <t>grace_byrnes</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>amelia_knudson</t>
+          <t>lanie.mahaffey1</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>lauryn_birt</t>
+          <t>jennaarnolddd</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>grayson.collier</t>
+          <t>sam_stephenson05</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>harrison.feldman7</t>
+          <t>lillymanson</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>whitneywardd</t>
+          <t>sibleyanne7</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>edie_levit</t>
+          <t>carolinelawley_</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>emerybrannon</t>
+          <t>nelsonbrown25</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>lucyshieldss</t>
+          <t>gabi.stokes</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>moeforbess</t>
+          <t>emma.ant27</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>vaugsper</t>
+          <t>carson.kecskes</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>maddie_anthonyy</t>
+          <t>charlotte.colleyy</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>rebecca.jensrud</t>
+          <t>rileyroach0</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>halfeatenpi</t>
+          <t>lila.norriss</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>mollie_hemphill</t>
+          <t>drew.ern</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>lisatolle2003</t>
+          <t>ellaswilley_</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>hollygu01</t>
+          <t>audreyanmeletio</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>jack.shanahan21</t>
+          <t>gripp0</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>tim.hillegass</t>
+          <t>lacey_liz</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>adamtewell05</t>
+          <t>rachel.landauu</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>lileeesmith</t>
+          <t>sadiegracea</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>claytonlantz</t>
+          <t>avaawendt</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>smartolino_</t>
+          <t>olivia_naughton_</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>max_yeast</t>
+          <t>shelbi_stein</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>drouth04</t>
+          <t>margueriteemary</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>pgarms1</t>
+          <t>townes.hardy12</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>jenninsthompson</t>
+          <t>cocodoyle30</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>gracemotogawa</t>
+          <t>elizawoodie</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>anna.hoffm</t>
+          <t>emily.a.abernathy</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>sweezye4</t>
+          <t>neelylyon</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>peytonneathery</t>
+          <t>claudiasnow45</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>heidifelini</t>
+          <t>_avagabrielle_</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>aubreecaldwelll</t>
+          <t>_alexispgarcia_</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>oliviaaa.phillips</t>
+          <t>sarahdigbyy</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>luke_milam14</t>
+          <t>nicolelambb_</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>seth_merkel</t>
+          <t>katieschinke</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>puffecsp</t>
+          <t>layla.trump</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>alrxghtyaphrxdxte</t>
+          <t>annakate.clark</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>allieblevinss</t>
+          <t>maryelizabethalford</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>wdetraditions</t>
+          <t>jennadooley</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>mycollectedfavs</t>
+          <t>sierra.coker</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>kate.andrews19</t>
+          <t>kategordonnn</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>matty32b</t>
+          <t>roryschank</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>kar_schofill</t>
+          <t>sophia.pouliot</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>jordanpr94</t>
+          <t>kyleedwornik</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>rachelevansss_</t>
+          <t>gracemhotchkiss</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>dr_stephanie_johnson</t>
+          <t>emma.aderholdt</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>_katelynsellers</t>
+          <t>tyndalltalley</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>dellamasonn</t>
+          <t>kate.babcock13</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>grant_dickinson21</t>
+          <t>mallory.seahorn</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,507 +1748,507 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>gracenlamadrid</t>
+          <t>elizabethkwatson</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>emmaamurphey</t>
+          <t>mia.biscotti</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>caroline.rahal05</t>
+          <t>ada_chesney</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>garrett_burdeaux_</t>
+          <t>oliviaadcock_</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>marin.swarbrick</t>
+          <t>emturnerrr</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>cateyspraggins</t>
+          <t>mia.greco10</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>foodie_steph_123x</t>
+          <t>emelinarozmajzl</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>jackson_mathis_</t>
+          <t>katieacunninghamm</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>patrick_darke</t>
+          <t>wescsmith</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>jordanlalexander</t>
+          <t>tylerplese</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>coop_a_loop14</t>
+          <t>reese.behnke</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>bessicaburst521</t>
+          <t>adysonduvall</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>marydavissandin</t>
+          <t>averywallingford</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>emeryelizabethh_</t>
+          <t>olivia.gratz</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>_cassidycbrown</t>
+          <t>gracecathmerrill</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>camrynwilly</t>
+          <t>landonharper05</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>michaelcasiano6</t>
+          <t>mcwhorter.jack</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>lilykatherinej</t>
+          <t>realbraydenp</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>matthewd_mck</t>
+          <t>maryannesbennett</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>_reaganstein</t>
+          <t>caro.savagee</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>madelinehopey</t>
+          <t>lindenavery1</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>desmond.evans2.0</t>
+          <t>saylor.hankins</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>fleeceyourfav</t>
+          <t>witt.culpepper</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>andrew_beyer19</t>
+          <t>zoeypastis</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>camischodrof</t>
+          <t>audrey_jj5687</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1bsnla</t>
+          <t>allie_mcalister</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>kendallshuey_</t>
+          <t>elsie.clare.coppage</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>sofiehancock</t>
+          <t>algaparker</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>gabichuinard</t>
+          <t>floradanielson</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>hrhayter</t>
+          <t>lbeach_29</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>shalynallen</t>
+          <t>m12epperson</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>thomasdaniel406</t>
+          <t>_harperjane_</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>shelbyelizabethschmitt</t>
+          <t>liamconnol1y</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>weshollis34</t>
+          <t>davis_bolton</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>oluwakayode696_</t>
+          <t>audrey_todaro</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ace_shaw_</t>
+          <t>lillymaestri</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>taylor_brown923</t>
+          <t>olivia_zaveri</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>aubie_glow</t>
+          <t>graciee.holmes</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ami.cons</t>
+          <t>elizabethh.downs</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>hudsonkennerly</t>
+          <t>graciegibby</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>michmischley</t>
+          <t>agfarner</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ava.pritchett</t>
+          <t>_ryanrupp</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>slg_21</t>
+          <t>maxx.wash</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>allen_n01</t>
+          <t>kenziebryantt</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>nursesandee</t>
+          <t>sam.starklauf</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>deirdresmith_</t>
+          <t>katherinee.welch</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>hpuhlman0802</t>
+          <t>camilledalton_</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>peyton_v_lewis</t>
+          <t>falonrjones</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>bridgetstreibig</t>
+          <t>bella.m.tucker</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>owenglacken</t>
+          <t>emmap.1131</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>jake_tidwell123</t>
+          <t>cecefraser_</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>zoeaboydd</t>
+          <t>alyssa._.ghanayem</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>_alinaeanderson</t>
+          <t>julia.may4</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>allegracrawfordd</t>
+          <t>annarosemillett</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>jamesmoshier_04</t>
+          <t>ethanwynn06</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>emily.a.burchett</t>
+          <t>jdcound</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>rchrisw1111</t>
+          <t>gabby_sweeney</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>elliecrabtreeee</t>
+          <t>juliasbragg</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>kristinvacc</t>
+          <t>lianaharperr</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>graci_foshee</t>
+          <t>kamrynhochmann</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>alyssammillerr</t>
+          <t>ella.durante</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>abbykburgesss</t>
+          <t>catherinecroninn</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>audreywv</t>
+          <t>annika_gregson</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>maddynickelson</t>
+          <t>lucy_griffeth</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>avamaryyy</t>
+          <t>mckenziealdridge</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>alsokameron</t>
+          <t>peyton_spooner06</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>kara.carr</t>
+          <t>cannwagnerr</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>will.schuman23</t>
+          <t>_laurenturnerr</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>oli1785</t>
+          <t>carlisle_kirk</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ava_levine156</t>
+          <t>parkerwwest</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>carissarinard</t>
+          <t>averydarr</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>vvanessavaccaro</t>
+          <t>matthew.dibiase</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>shendersonstuff</t>
+          <t>gracekarle</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>mpferebee</t>
+          <t>ek.felton</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>jacksonansley</t>
+          <t>jada._.porter</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>sadiegracea</t>
+          <t>dixon.davis5</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>_sarasmith._</t>
+          <t>peytonwade_</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ellaprida</t>
+          <t>emikatehassler</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>brittanyedone</t>
+          <t>haleylane_j</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>marionsasser_</t>
+          <t>brayden.bordeau</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>emmaunderwoodd</t>
+          <t>dani.gaydosh</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>austin_lundquist24</t>
+          <t>ella.strub</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>emelyoddeven</t>
+          <t>madisonlj07</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>natalie.cravens</t>
+          <t>jay.creigh</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>aria.l.bauer</t>
+          <t>_allison.thomas</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>grantcmcdonald</t>
+          <t>maddieelder_</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>josiah42042</t>
+          <t>_allisonlee1</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>stormysvensson</t>
+          <t>_grace.gilmore_</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>lyndenmgraves</t>
+          <t>brannanp</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>benheerde</t>
+          <t>emma.scheipe</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>nataliee.nelsonn</t>
+          <t>sarah._potts</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>mary.roslyn_</t>
+          <t>gfraz1492</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>courtney__stringer</t>
+          <t>marziamueller</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>alicia_lordi</t>
+          <t>addisonseale_</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>emmagurleyyy</t>
+          <t>taylormerrill5</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>chandler_2004</t>
+          <t>camischodrof</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>michaela__gray</t>
+          <t>elisabethloudon_</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>kennedymporter</t>
+          <t>ruth._.allen</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ellaatatee</t>
+          <t>annaoliphant12</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>brendan_j_1</t>
+          <t>marin.bohlman</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>willgrimes1</t>
+          <t>mycollectedfavs</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>henner.harvey</t>
+          <t>erinsullivann_</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>max.berkenfield</t>
+          <t>shea.stansberry</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>mason.londre</t>
+          <t>hadleymcdonell</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>how_y_yhu</t>
+          <t>ryann_jones5</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>brookenjohnson</t>
+          <t>ella.rehberg</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>matthewbruno_</t>
+          <t>maggienalley</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>anne.wags</t>
+          <t>annabeth.grahammm</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>n_swifty</t>
+          <t>nick.hands14</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>maryaliceanglea</t>
+          <t>belle_dyne</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>_avaathompson</t>
+          <t>phoebectucker</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>savannah_emmaaa</t>
+          <t>mtatthew12</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>katewisneskii</t>
+          <t>lauren.n.kirby</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>jacksonmcbee_</t>
+          <t>han_ray05</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>tori._.bonham</t>
+          <t>nkhenrich</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ashleybrowder</t>
+          <t>colin_bucey</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>aansleydaniel</t>
+          <t>harper_dienna97</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>zola.spence</t>
+          <t>jilly.rogers</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>nick.hands14</t>
+          <t>meghanroper_</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>_rachel_mcdonald_</t>
+          <t>sydney_bennett19</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>emmafulcher</t>
+          <t>stellstwsheldon13</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>juliacbrooks</t>
+          <t>emma.wynn31</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>walkerwilliams05</t>
+          <t>amandalaprill</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>will.b_3</t>
+          <t>carislauritsenn</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>sstimpson_18</t>
+          <t>sydney.ridnour</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>_katherinerodden</t>
+          <t>averyingling20</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>meganfogarty_</t>
+          <t>bella_schiavo</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>marrisjoe69</t>
+          <t>kennedy_tewell</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>pistoy6</t>
+          <t>averyalderman_</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>luxoden_nic3</t>
+          <t>danielle_croteau2</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>connor.florance</t>
+          <t>annakate.bowman</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>caroline_rowe05</t>
+          <t>abbie.merhoff</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>dillon_horton1</t>
+          <t>thegiannafleming</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>lgjsnider</t>
+          <t>audreywv</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>peytonsheppard_</t>
+          <t>maddiek.west</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>thekaliana</t>
+          <t>charlottesaxe_</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>cslebleu</t>
+          <t>john_d_richardson</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>karafcox</t>
+          <t>addymueller</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>mikesatriasarwono</t>
+          <t>harperconnolley</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>rae_154</t>
+          <t>mollyy.necole</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>j.mosier76</t>
+          <t>virginiaevans_</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>erin_kathleen_</t>
+          <t>_isabelhorton_</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>momma_stucky</t>
+          <t>judylgoodchild</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>breanna.smith123</t>
+          <t>brooke.collins22</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>abby.kieklak</t>
+          <t>rileyzaluski</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>anna_l_duffy</t>
+          <t>natygon21</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>kayasoniat</t>
+          <t>wilsonriley929</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>chris.kelly.2</t>
+          <t>betsynearn</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>griffntaylor</t>
+          <t>_sophiaschroeder</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ryleeghanson</t>
+          <t>kaden_baker__</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>conorb6</t>
+          <t>_miamccormick_</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>kent_blankenburg</t>
+          <t>madelinemmayer</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>cameron_ard22</t>
+          <t>annieallredd</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>dionawalters</t>
+          <t>bellesansom</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>alyyjohnsonn</t>
+          <t>haley.janacek</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>papermarkup</t>
+          <t>keirabrookee</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>dawnfriel</t>
+          <t>madelyn.p</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ryland.pollard</t>
+          <t>nevaeht8o</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>_rhspachman_</t>
+          <t>ameliahardyy</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ameliahardyy</t>
+          <t>allie_britnell</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ciara.battles</t>
+          <t>ella.scolaro</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>jack_gimm</t>
+          <t>_riley.jackson_</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>tek9412023</t>
+          <t>elenabalo_</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>amcdonald6802</t>
+          <t>summer.c.evans</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>b_walters1021</t>
+          <t>gracieozbirn</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>bragging.wrights</t>
+          <t>eadieliam</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>leahgurski</t>
+          <t>kate_berube</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>addisonhalfacree</t>
+          <t>mannatsuri</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>kathryndanley</t>
+          <t>grant.sobel</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>julesgibson</t>
+          <t>grantbradford2</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>isaacjcarrillo16</t>
+          <t>emmeoskay</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>madison_calder</t>
+          <t>cayleevickers</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ryan_macdougall1</t>
+          <t>briley.hoffman05</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>joshshvartsman</t>
+          <t>jack.walker1013</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>allisonpye_</t>
+          <t>alyssaplasity</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ivyee_2023</t>
+          <t>grace_maestri</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>harlee.turner</t>
+          <t>braxton_hallmon</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>blackauburn27</t>
+          <t>isabella.c.allen</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>annemarie_hale</t>
+          <t>ellakamerschen</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>charlotte.grace.omundson</t>
+          <t>maddie_feild_06</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>casey_garnett</t>
+          <t>haleywward</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>brooks.booth</t>
+          <t>lilymcadamss</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>tuckerr_ryan</t>
+          <t>hutton_green</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>mary_packer</t>
+          <t>lindsaylibs</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>annaclayton_05</t>
+          <t>maggiesoukup</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ivey_mattscheck</t>
+          <t>andiduay</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>caroline_holmes27</t>
+          <t>merritt.avery</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>caroline_salv8</t>
+          <t>lex_cribbet</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>tateggardner</t>
+          <t>abbeycwolfe</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>bhronchek</t>
+          <t>betsy_fulkus</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>bryanswaney.19</t>
+          <t>scout_smith05</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>jake.salmore</t>
+          <t>emma15brunson</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>reagan.nowak</t>
+          <t>mbgarvinn</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>avery.ck</t>
+          <t>rees.poulakos</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>nautakathy</t>
+          <t>sophiamattioli5</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>_livmarieeee</t>
+          <t>kels.johnson</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>nnataliepope</t>
+          <t>lucyvdonovan</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>kaylee.word</t>
+          <t>annwelchhhilyer</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>bentleydalton_</t>
+          <t>lacy.johnsonn</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>jack_stanford1</t>
+          <t>grayson.chesson</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>jlchouse</t>
+          <t>annaclayton_05</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>linnea.greco</t>
+          <t>bellagroesser</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>laney.roth</t>
+          <t>max_inhouse</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>stellmcnab</t>
+          <t>l.i.l.l.y.m05</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>edenboyd</t>
+          <t>lydialheaton</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>elenaryerson</t>
+          <t>natalie_evermon_</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>reidmaxwell_13</t>
+          <t>dharini_gangadharan</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>_dinomoran</t>
+          <t>holdsworth_libby</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>sydney.bass</t>
+          <t>tayjohammy</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>nathan.thau</t>
+          <t>addisonsohosky</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>cheri_heather</t>
+          <t>manderton1020</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>char1ieheagy</t>
+          <t>rileywade21</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>luna.saage</t>
+          <t>alyssa.bink</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>maria_wolowiecki</t>
+          <t>heatherwperoe</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>zammmyynewt</t>
+          <t>caroline__burrows</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>wheel_mcdaniel</t>
+          <t>mmackenziejoness</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,10 +3908,1280 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>allisonnoel__</t>
+          <t>allison_richardson146</t>
         </is>
       </c>
       <c r="B348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>mkcaseyy</t>
+        </is>
+      </c>
+      <c r="B349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>lilli_bryanttt</t>
+        </is>
+      </c>
+      <c r="B350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>addiecstewart</t>
+        </is>
+      </c>
+      <c r="B351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>karleecarrell</t>
+        </is>
+      </c>
+      <c r="B352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>lucywoodardd</t>
+        </is>
+      </c>
+      <c r="B353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>mylagreene_</t>
+        </is>
+      </c>
+      <c r="B354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>bella.risser7</t>
+        </is>
+      </c>
+      <c r="B355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>julia_anns_</t>
+        </is>
+      </c>
+      <c r="B356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>km2.024</t>
+        </is>
+      </c>
+      <c r="B357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>avaewolf</t>
+        </is>
+      </c>
+      <c r="B358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>hannahgbrewster</t>
+        </is>
+      </c>
+      <c r="B359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>ashlyn___joness</t>
+        </is>
+      </c>
+      <c r="B360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>mackiee.hart</t>
+        </is>
+      </c>
+      <c r="B361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>kaleighhowell_</t>
+        </is>
+      </c>
+      <c r="B362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>carsonjarmon</t>
+        </is>
+      </c>
+      <c r="B363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>maddie_anthonyy</t>
+        </is>
+      </c>
+      <c r="B364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>sarahbgarrott</t>
+        </is>
+      </c>
+      <c r="B365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>sierralochridge</t>
+        </is>
+      </c>
+      <c r="B366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>maggiecaprise</t>
+        </is>
+      </c>
+      <c r="B367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>helencatheriner</t>
+        </is>
+      </c>
+      <c r="B368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>everettleerdam</t>
+        </is>
+      </c>
+      <c r="B369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>ava_spires13</t>
+        </is>
+      </c>
+      <c r="B370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>emilysheridan7</t>
+        </is>
+      </c>
+      <c r="B371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>gracee_mitchelll</t>
+        </is>
+      </c>
+      <c r="B372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>allison_.jones</t>
+        </is>
+      </c>
+      <c r="B373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>janepodrazhansky</t>
+        </is>
+      </c>
+      <c r="B374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>_jillianbender_</t>
+        </is>
+      </c>
+      <c r="B375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>kendallabernathy_</t>
+        </is>
+      </c>
+      <c r="B376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>annetrammell_</t>
+        </is>
+      </c>
+      <c r="B377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>maggiechisholm_</t>
+        </is>
+      </c>
+      <c r="B378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>halleballantine</t>
+        </is>
+      </c>
+      <c r="B379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>y0urstruly.adda1ie</t>
+        </is>
+      </c>
+      <c r="B380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>sarahwwilliamss</t>
+        </is>
+      </c>
+      <c r="B381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>thomasbeverly_25</t>
+        </is>
+      </c>
+      <c r="B382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>savannahbradley__</t>
+        </is>
+      </c>
+      <c r="B383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>mearachick</t>
+        </is>
+      </c>
+      <c r="B384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>e.khouzami</t>
+        </is>
+      </c>
+      <c r="B385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>isabel.hill1</t>
+        </is>
+      </c>
+      <c r="B386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>sarah.nunezzz</t>
+        </is>
+      </c>
+      <c r="B387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>bennett_br0wn</t>
+        </is>
+      </c>
+      <c r="B388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>seth_adams72</t>
+        </is>
+      </c>
+      <c r="B389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>avaerickson11</t>
+        </is>
+      </c>
+      <c r="B390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>liilyondy</t>
+        </is>
+      </c>
+      <c r="B391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>graycenbschreiner</t>
+        </is>
+      </c>
+      <c r="B392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>sydneyymonson</t>
+        </is>
+      </c>
+      <c r="B393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>lauren.e.luker</t>
+        </is>
+      </c>
+      <c r="B394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>jjordanwurth</t>
+        </is>
+      </c>
+      <c r="B395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>her_americano</t>
+        </is>
+      </c>
+      <c r="B396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>quinn.torres02</t>
+        </is>
+      </c>
+      <c r="B397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>katarinamh</t>
+        </is>
+      </c>
+      <c r="B398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>evieallene_</t>
+        </is>
+      </c>
+      <c r="B399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>reecevardenn</t>
+        </is>
+      </c>
+      <c r="B400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>sallymae.whitt</t>
+        </is>
+      </c>
+      <c r="B401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>sophie.burson</t>
+        </is>
+      </c>
+      <c r="B402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>lelguicze</t>
+        </is>
+      </c>
+      <c r="B403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>kmackenzie_moore</t>
+        </is>
+      </c>
+      <c r="B404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>_averyhoward_</t>
+        </is>
+      </c>
+      <c r="B405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>leahrgordon_</t>
+        </is>
+      </c>
+      <c r="B406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>mapb2000</t>
+        </is>
+      </c>
+      <c r="B407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>hannah.mariee62</t>
+        </is>
+      </c>
+      <c r="B408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>_abbymdouglas</t>
+        </is>
+      </c>
+      <c r="B409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>ellasherrard</t>
+        </is>
+      </c>
+      <c r="B410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>lucie_schauer</t>
+        </is>
+      </c>
+      <c r="B411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>victoriasimmss</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>amielw12</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>marissaforness</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>madidoster</t>
+        </is>
+      </c>
+      <c r="B415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>chrisc0923</t>
+        </is>
+      </c>
+      <c r="B416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>abbywatson_05</t>
+        </is>
+      </c>
+      <c r="B417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>des.willis4</t>
+        </is>
+      </c>
+      <c r="B418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>leona_sanford08</t>
+        </is>
+      </c>
+      <c r="B419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>mias__17</t>
+        </is>
+      </c>
+      <c r="B420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>natalie.s.alvarez</t>
+        </is>
+      </c>
+      <c r="B421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>reese.wilson13</t>
+        </is>
+      </c>
+      <c r="B422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>ej.hewette</t>
+        </is>
+      </c>
+      <c r="B423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>kristakempton314</t>
+        </is>
+      </c>
+      <c r="B424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>ivyjane_doughman</t>
+        </is>
+      </c>
+      <c r="B425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>_cassidycbrown</t>
+        </is>
+      </c>
+      <c r="B426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>annecathrynpinson</t>
+        </is>
+      </c>
+      <c r="B427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>chloe.kreuzer</t>
+        </is>
+      </c>
+      <c r="B428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>susanne.thomson_</t>
+        </is>
+      </c>
+      <c r="B429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>_reaganstein</t>
+        </is>
+      </c>
+      <c r="B430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>ryanmau_</t>
+        </is>
+      </c>
+      <c r="B431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>suzannegatti_</t>
+        </is>
+      </c>
+      <c r="B432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>zzzariaa_</t>
+        </is>
+      </c>
+      <c r="B433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>meganw1ll</t>
+        </is>
+      </c>
+      <c r="B434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>debbie_larae_lozano</t>
+        </is>
+      </c>
+      <c r="B435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>jack.k051</t>
+        </is>
+      </c>
+      <c r="B436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>janawalrath1</t>
+        </is>
+      </c>
+      <c r="B437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>chloelglass</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>tate_wojo</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>jackson.tanner5</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>katherine_jones1217</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>suttonelizabeth_</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>molly_nicolee</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>arthur.langley11</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>tylercason6</t>
+        </is>
+      </c>
+      <c r="B445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>mason_will_</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>hallemango</t>
+        </is>
+      </c>
+      <c r="B447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>mcd.2323</t>
+        </is>
+      </c>
+      <c r="B448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>tyler.koko</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>billy_braswell14</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>riley.cordell</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>madelynmall</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>edward_b711</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>lillywigginsss</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>catherinesholter</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>mallory.mcbrayer</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>natalie.knudson</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>hannahbierbauer</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>frances_annk</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>emma.wehring</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>scasamento</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>sophiekazek</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>_meganlowery_</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>jackson.mccandless</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>ellenckim</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>maddie_butson</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>sstimpson_18</t>
+        </is>
+      </c>
+      <c r="B467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>chandlermathison</t>
+        </is>
+      </c>
+      <c r="B468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>luciassaez</t>
+        </is>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>carlycucuzza</t>
+        </is>
+      </c>
+      <c r="B470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>ella.reid.rodgers</t>
+        </is>
+      </c>
+      <c r="B471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>mollyywade</t>
+        </is>
+      </c>
+      <c r="B472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>kayleejunefranklin</t>
+        </is>
+      </c>
+      <c r="B473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>brinley.dye</t>
+        </is>
+      </c>
+      <c r="B474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>charliejesel_</t>
+        </is>
+      </c>
+      <c r="B475" t="b">
         <v>0</v>
       </c>
     </row>
